--- a/biology/Médecine/Biofeedback/Biofeedback.xlsx
+++ b/biology/Médecine/Biofeedback/Biofeedback.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Au sens large, la rétroaction biologique ou rétrocontrôle biologique ou le biofeedback est un ensemble de techniques principalement relatives à la bioélectricité pour la mesure de fonctions organiques qui repose sur la visualisation, avec des appareils électriques, des signaux physiologiques d'un sujet conscient de ces mesures.
@@ -513,7 +525,9 @@
           <t>Type de signaux mesurés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'électrocardiogramme (ECG) qui mesure l'activité cardiaque (et en particulier la variabilité de fréquence cardiaque) ;
 l'électromyogramme (EMG) qui mesure la tension des muscles ;
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,7 +591,9 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était initialement très chers (jusqu'à 10 000 euros).
 Mais avec l'intégration des circuits électroniques, l'arrivée des micro-ordinateurs et les programmes freeware (gratuits), la technologie s'est simplifiée et les prix ont considérablement baissé ce qui permet à des praticiens formés en trois jours de pouvoir intervenir à moindre coût.
@@ -609,7 +627,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Découvert dans les années 1970, la première  utilisation du biofeedback a été celle du biofeedback EEG (électro-encéphalogramme) avec les productions d'ondes alpha.
 Les inventeurs des techniques de relaxation modernes, Edmund Jacobson avec la relaxation progressive, et Alfonso Caycedo avec la sophrologie, ont utilisé ces techniques pour mesurer l'efficacité de leurs méthodes.
@@ -642,16 +662,15 @@
           <t>Neurofeedback</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le neurofeedback (NFB), aussi appelé en neurothérapie, neurobiofeedback ou biofeedback EEG (EEGBF) est une technique qui montre à l'utilisateur en temps réel l'activité de ses ondes cérébrales, mesurées par des électrodes placées sur le cuir chevelu, sous la forme d'une image, d'un son. Cette technique, importée des États-Unis, utilise le principe du conditionnement opérant[réf. nécessaire]. Le principe général est celui du renforcement perceptible, c'est-à-dire de favoriser une activité cérébrale correspondant à la cible. Toute la difficulté du neurofeedback réside dans la détermination d'une cible susceptible d'améliorer le sujet[réf. nécessaire].
 Le neurofeedback est une procédure en principe non-invasive. Une ou plusieurs électrodes sont placées sur le cuir chevelu, et une à chaque oreille. Les ondes cérébrales sont détectées à l'aide de l'électrode et le signal est ensuite amplifié et filtré grâce à un amplificateur et un convertisseur analogique numérique. Ce signal est ensuite converti en image ou en sons pour fournir la rétroaction appropriée montrée sur l’écran d’un ordinateur. Ceci est révélé au patient au moyen de jeu vidéo ou de tout autre affichage visuel, ainsi que par des signaux audio. Le patient est invité à pratiquer le jeu vidéo en relation avec son cerveau. À mesure que l'activité dans une bande de fréquence souhaitable augmente, le jeu vidéo se déplace plus rapidement, ou une autre récompense est donnée. À mesure que l'activité dans une bande défavorable augmente, le jeu vidéo est ralenti. Graduellement, le cerveau répond aux sélections qui lui sont données, et un « apprentissage » de la nouvelle onde cérébrale est fait. Le nouveau modèle correspond à celui qui est observé chez les individus qui normalement n’ont pas de difficultés[réf. nécessaire].
 En stimulant le cerveau, de la même façon que vous stimulez le corps en faisant de l’exercice physique, vous pouvez aider le cerveau à apprendre à mieux fonctionner. Par exemple : un meilleur fonctionnement du cerveau peut améliorer la qualité du sommeil. Quand on dort plus efficacement, on est plus alerte pendant le jour. Le neurofeedback peut aider à gérer le stress et la dépression, et des syndromes comme la migraine ou la douleur chronique.
-De plus, l’entraînement par neurofeedback peut être utile dans certaines pathologies spécifiques, comme des convulsions, des traumatismes et accidents vasculaires cérébraux, le trouble du déficit de l'attention avec ou sans hyperactivité[1], et l’autisme. Dans ces exemples le sujet ne se débarrasse pas du problème mais organise simplement le cerveau pour fonctionner mieux dans le cadre des dommages ou de la perte existants.
+De plus, l’entraînement par neurofeedback peut être utile dans certaines pathologies spécifiques, comme des convulsions, des traumatismes et accidents vasculaires cérébraux, le trouble du déficit de l'attention avec ou sans hyperactivité, et l’autisme. Dans ces exemples le sujet ne se débarrasse pas du problème mais organise simplement le cerveau pour fonctionner mieux dans le cadre des dommages ou de la perte existants.
 Afin d'atteindre un objectif spécifique, l’entraînement continue habituellement pour un nombre de séances qui dépend des difficultés de la personne. L’entraînement par neurofeedback peut être employé sans limite pour améliorer la performance. L'entraînement pour améliorer la peak performance peut être intéressant pour les athlètes professionnels, les cadres d'entreprise, et pour la pratique artistique[réf. nécessaire].
-Usages
-On sait que la perception de la douleur est régie par des fibres ascendantes (allant du récepteur de la douleur au cerveau) et des fibres descendantes (allant dans le sens inverse)[2]. Il est ainsi reconnu qu'un sujet peut moduler sa perception de la douleur en recourant à des stratégies de distraction (compter, faire de la visualisation, etc.) Une équipe de l'université Stanford est parvenue à faire diminuer la douleur en permettant aux sujets atteints de maux chroniques d'observer leur activité cérébrale par imagerie par résonance magnétique. Dans cette étude, les sujets étaient invités à observer l'activité du cortex cingulaire, une région qui traduit les signaux de douleur en douleur subjective[3].
-Selon les études recensées par l'ISNR et l'institut EEG, le neurofeedback aiderait à soigner de nombreux troubles et pathologies tels que les acouphènes, les migraines, les insomnies, le stress, l’anxiété, l'impuissance, la frigidité, les angoisses, les phobies, l’hyperactivité, les douleurs chroniques, la fatigue, la fibromyalgie, l'hypertension, le diabète, la dépendance et l’addiction sexuelle, les tics, les TOCs et bien plus encore[4],[5].
 </t>
         </is>
       </c>
@@ -677,13 +696,53 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Neurofeedback</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On sait que la perception de la douleur est régie par des fibres ascendantes (allant du récepteur de la douleur au cerveau) et des fibres descendantes (allant dans le sens inverse). Il est ainsi reconnu qu'un sujet peut moduler sa perception de la douleur en recourant à des stratégies de distraction (compter, faire de la visualisation, etc.) Une équipe de l'université Stanford est parvenue à faire diminuer la douleur en permettant aux sujets atteints de maux chroniques d'observer leur activité cérébrale par imagerie par résonance magnétique. Dans cette étude, les sujets étaient invités à observer l'activité du cortex cingulaire, une région qui traduit les signaux de douleur en douleur subjective.
+Selon les études recensées par l'ISNR et l'institut EEG, le neurofeedback aiderait à soigner de nombreux troubles et pathologies tels que les acouphènes, les migraines, les insomnies, le stress, l’anxiété, l'impuissance, la frigidité, les angoisses, les phobies, l’hyperactivité, les douleurs chroniques, la fatigue, la fibromyalgie, l'hypertension, le diabète, la dépendance et l’addiction sexuelle, les tics, les TOCs et bien plus encore,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biofeedback</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biofeedback</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Dr Olivier Pallanca, psychiatre neurophysiologiste, avec cette méthode, on ne sait pas si le signal enregistré correspond bien à l'activité cérébrale : "On n'a jamais démontré qu'on pouvait resynchroniser le cerveau de manière aussi simple, avec deux électrodes. En sachant que même avec des IRM et des EEG (électroencéphalogramme) quantifiés, on a déjà du mal à percevoir cette activité"[6].
-Depuis les années 1970, des milliers d'études ont cherché à évaluer les effets du neurofeedback : les plus probantes portent sur les troubles du déficit de l'attention ou sur l'épilepsie. Mais à ce jour, aucun protocole de soins n'a été validé en France par la Haute autorité de santé (HAS)[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Dr Olivier Pallanca, psychiatre neurophysiologiste, avec cette méthode, on ne sait pas si le signal enregistré correspond bien à l'activité cérébrale : "On n'a jamais démontré qu'on pouvait resynchroniser le cerveau de manière aussi simple, avec deux électrodes. En sachant que même avec des IRM et des EEG (électroencéphalogramme) quantifiés, on a déjà du mal à percevoir cette activité".
+Depuis les années 1970, des milliers d'études ont cherché à évaluer les effets du neurofeedback : les plus probantes portent sur les troubles du déficit de l'attention ou sur l'épilepsie. Mais à ce jour, aucun protocole de soins n'a été validé en France par la Haute autorité de santé (HAS).
 </t>
         </is>
       </c>
